--- a/Testcase Live Project_UnitTest_v1.xlsx
+++ b/Testcase Live Project_UnitTest_v1.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanthithuy/Documents/Live Poroject Guru99/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70885A4C-2552-4949-AC44-C680664415D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Changelog" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="New Customer" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Edit Customer" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Copy of Edit Customer" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="New Account" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Edit Account" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Delete Account" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Delete Customer" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Mini Statement" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Customize Statement" sheetId="10" r:id="rId12"/>
-    <sheet state="hidden" name="FundTransfer" sheetId="11" r:id="rId13"/>
-    <sheet state="hidden" name="BalenceEnquiry" sheetId="12" r:id="rId14"/>
-    <sheet state="hidden" name="Inter Bank Fund  Transfer" sheetId="13" r:id="rId15"/>
-    <sheet state="hidden" name="Change  password" sheetId="14" r:id="rId16"/>
+    <sheet name="Changelog" sheetId="1" r:id="rId1"/>
+    <sheet name="New Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
+    <sheet name="Copy of Edit Customer" sheetId="4" r:id="rId4"/>
+    <sheet name="New Account" sheetId="5" r:id="rId5"/>
+    <sheet name="Edit Account" sheetId="6" r:id="rId6"/>
+    <sheet name="Delete Account" sheetId="7" r:id="rId7"/>
+    <sheet name="Delete Customer" sheetId="8" r:id="rId8"/>
+    <sheet name="Mini Statement" sheetId="9" r:id="rId9"/>
+    <sheet name="Customize Statement" sheetId="10" r:id="rId10"/>
+    <sheet name="FundTransfer" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="BalenceEnquiry" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Change  password" sheetId="14" state="hidden" r:id="rId14"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="318">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -43,16 +52,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Tom Rick</t>
-  </si>
-  <si>
-    <t>24/10/2013</t>
-  </si>
-  <si>
     <t>Initial Draft</t>
-  </si>
-  <si>
-    <t>15/11/2013</t>
   </si>
   <si>
     <t>Added Test Steps and Test Data</t>
@@ -1044,78 +1044,85 @@
   </si>
   <si>
     <t>An error message "Passwords not match " must be shown</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Thuý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Droid Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Verdana"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1155,16 +1162,30 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1179,270 +1200,506 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-    <col customWidth="1" min="3" max="3" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="15.13"/>
-    <col customWidth="1" min="5" max="5" width="27.25"/>
-    <col customWidth="1" min="6" max="20" width="15.13"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1464,11 +1721,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1485,7 +1745,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1507,7 +1767,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1529,7 +1789,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1551,7 +1811,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1573,18 +1833,18 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1"/>
@@ -1603,21 +1863,21 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="45">
+        <v>44858</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1633,21 +1893,21 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7"/>
+    <row r="9" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="46">
+        <v>44889</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1663,13 +1923,13 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
+    <row r="10" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1685,12 +1945,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1707,12 +1967,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" ht="12.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1729,7 +1989,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1751,7 +2011,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1773,7 +2033,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1795,7 +2055,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" ht="12.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1817,7 +2077,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" ht="12.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1839,7 +2099,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" ht="12.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1861,7 +2121,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" ht="12.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1883,7 +2143,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" ht="12.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1905,7 +2165,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" ht="12.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1927,7 +2187,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1949,7 +2209,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1971,7 +2231,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1993,7 +2253,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" ht="12.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2015,7 +2275,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" ht="12.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2037,7 +2297,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" ht="12.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2059,7 +2319,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" ht="12.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2081,7 +2341,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" ht="12.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2103,7 +2363,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2125,7 +2385,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" ht="12.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2147,7 +2407,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" ht="12.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2169,7 +2429,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2191,7 +2451,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" ht="12.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2213,7 +2473,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" ht="12.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2235,7 +2495,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" ht="12.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2257,7 +2517,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2279,7 +2539,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2301,7 +2561,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2323,7 +2583,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2345,7 +2605,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2367,7 +2627,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2389,7 +2649,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2411,7 +2671,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2433,7 +2693,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2455,7 +2715,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2477,7 +2737,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2499,7 +2759,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2521,7 +2781,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2543,7 +2803,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2565,7 +2825,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2587,7 +2847,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2609,7 +2869,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2631,7 +2891,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2653,7 +2913,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2675,7 +2935,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2697,7 +2957,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2719,7 +2979,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" ht="13">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2741,7 +3001,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" ht="13">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2763,7 +3023,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" ht="13">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2785,7 +3045,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" ht="13">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2807,7 +3067,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" ht="13">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2829,7 +3089,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" ht="13">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2851,7 +3111,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" ht="13">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2873,7 +3133,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" ht="13">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2895,7 +3155,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" ht="13">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2917,7 +3177,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" ht="13">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2939,7 +3199,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" ht="13">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2961,7 +3221,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" ht="13">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2983,7 +3243,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" ht="13">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3005,7 +3265,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" ht="13">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3027,7 +3287,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" ht="13">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3049,7 +3309,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" ht="13">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3071,7 +3331,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" ht="13">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3093,7 +3353,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" ht="13">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3115,7 +3375,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" ht="13">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3137,7 +3397,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" ht="13">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3159,7 +3419,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" ht="13">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3181,7 +3441,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" ht="13">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3203,7 +3463,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" ht="13">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3225,7 +3485,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" ht="13">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3247,7 +3507,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" ht="13">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3269,7 +3529,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" ht="13">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3291,7 +3551,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" ht="13">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3313,7 +3573,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" ht="13">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3335,7 +3595,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" ht="13">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3357,7 +3617,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" ht="13">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3379,7 +3639,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" ht="13">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3401,7 +3661,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" ht="13">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3423,7 +3683,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" ht="13">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3445,7 +3705,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" ht="13">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3467,7 +3727,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" ht="13">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3489,7 +3749,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" ht="13">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3511,7 +3771,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" ht="13">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3533,7 +3793,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" ht="13">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3555,7 +3815,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" ht="13">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3577,7 +3837,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" ht="13">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3599,7 +3859,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" ht="13">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3621,7 +3881,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" ht="13">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3647,260 +3907,267 @@
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.38"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="6" max="6" width="25.88"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="E4" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
+      <c r="B5" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="D5" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="G5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="28" t="s">
+      <c r="D6" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="s">
+      <c r="E6" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D7" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="s">
+      <c r="E7" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="B8" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="C8" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="D8" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
+      <c r="E9" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>40</v>
+      <c r="E10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3909,752 +4176,757 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="21.75"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="24.25"/>
-    <col customWidth="1" min="7" max="19" width="15.13"/>
+    <col min="1" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="7" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="F2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="52" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D3" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="E3" s="38" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="52" t="s">
+      <c r="F3" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="53" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="D4" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="E4" s="38" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="52" t="s">
+      <c r="F4" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="53" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="37">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="C5" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="D5" s="38" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="52" t="s">
+      <c r="F5" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="52" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D6" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="E6" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="52" t="s">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D7" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="E7" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="52" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="37">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="C8" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" s="53" t="s">
+      <c r="D8" s="38" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="52" t="s">
+      <c r="F8" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="52" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D9" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="E9" s="38" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="52" t="s">
+      <c r="F9" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="53" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="D10" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="E10" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>273</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="22.63"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="19.25"/>
-    <col customWidth="1" min="7" max="19" width="15.13"/>
+    <col min="1" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="F1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="52" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D3" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="E3" s="38" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="52" t="s">
+      <c r="F3" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="53" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="D4" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="E4" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>284</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="20.88"/>
-    <col customWidth="1" min="5" max="20" width="15.13"/>
+    <col min="1" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="37">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="F5" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="37">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="37">
+        <v>4</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C12" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C13" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="53" t="s">
+      <c r="C14" s="37" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="52">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="52">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="52" t="s">
-        <v>294</v>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C15" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C16" s="37" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
-    <col customWidth="1" min="7" max="20" width="15.13"/>
+    <col min="1" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="F1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="52" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="C3" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="D3" s="38" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="F3" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="52" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D4" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="E4" s="37" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="52" t="s">
+      <c r="F4" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="52" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C5" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="D5" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="E5" s="37" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="52" t="s">
+      <c r="F5" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="52" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="D6" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="E6" s="37" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="52" t="s">
+      <c r="F6" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="52" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="37">
+        <v>3</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="C7" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="D7" s="37" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="52" t="s">
+      <c r="E7" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="F7" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>319</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.13"/>
-    <col customWidth="1" min="2" max="2" width="22.25"/>
-    <col customWidth="1" min="3" max="3" width="33.25"/>
-    <col customWidth="1" min="4" max="4" width="39.13"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="36.0"/>
-    <col customWidth="1" min="7" max="7" width="36.88"/>
-    <col customWidth="1" min="8" max="22" width="15.13"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="8" max="22" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="B2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4671,1068 +4943,1088 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:22" ht="57">
+      <c r="A3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="G3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" ht="57">
+      <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
+      <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="G4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" ht="38">
+      <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="E7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="G7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="H8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" ht="57">
+      <c r="A9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="B9" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="C9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" ht="38">
+      <c r="A10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" ht="38">
+      <c r="A11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" ht="38">
+      <c r="A12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" ht="38">
+      <c r="A13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" ht="57">
+      <c r="A14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" ht="57">
+      <c r="A15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:22" ht="38">
+      <c r="A16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="E16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="1:22" ht="38">
+      <c r="A17" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" ht="38">
+      <c r="A18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="1:22" ht="57">
+      <c r="A19" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+    </row>
+    <row r="20" spans="1:22" ht="57">
+      <c r="A20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="1:22" ht="38">
+      <c r="A21" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="E21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="E25" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="43"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="43"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="43"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="43"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="44"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+    </row>
+    <row r="30" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A30" s="30"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+    </row>
+    <row r="31" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+    </row>
+    <row r="32" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+    </row>
+    <row r="33" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5755,8 +6047,8 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5779,8 +6071,8 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5803,8 +6095,8 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5827,8 +6119,8 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5851,8 +6143,8 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="44"/>
+    <row r="38" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5875,8 +6167,8 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="44"/>
+    <row r="39" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5899,8 +6191,8 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5923,8 +6215,8 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="44"/>
+    <row r="41" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A41" s="31"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5947,8 +6239,8 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A42" s="31"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5971,8 +6263,8 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A43" s="31"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5995,8 +6287,8 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="44"/>
+    <row r="44" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A44" s="31"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6019,8 +6311,8 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="44"/>
+    <row r="45" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A45" s="31"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6043,8 +6335,8 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="44"/>
+    <row r="46" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A46" s="31"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6067,8 +6359,8 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="44"/>
+    <row r="47" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A47" s="31"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6091,8 +6383,8 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="44"/>
+    <row r="48" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A48" s="31"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6115,8 +6407,8 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="44"/>
+    <row r="49" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A49" s="31"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6139,8 +6431,8 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="44"/>
+    <row r="50" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A50" s="31"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6163,8 +6455,8 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="44"/>
+    <row r="51" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A51" s="31"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6187,8 +6479,8 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="44"/>
+    <row r="52" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A52" s="31"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6211,8 +6503,8 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="44"/>
+    <row r="53" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A53" s="31"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6235,8 +6527,8 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="44"/>
+    <row r="54" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A54" s="31"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6259,8 +6551,8 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="44"/>
+    <row r="55" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A55" s="31"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6283,8 +6575,8 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="44"/>
+    <row r="56" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A56" s="31"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6307,8 +6599,8 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="44"/>
+    <row r="57" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A57" s="31"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6331,8 +6623,8 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="44"/>
+    <row r="58" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A58" s="31"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6355,8 +6647,8 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="44"/>
+    <row r="59" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A59" s="31"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6379,8 +6671,8 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="44"/>
+    <row r="60" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A60" s="31"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6403,8 +6695,8 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="44"/>
+    <row r="61" spans="1:22" ht="13">
+      <c r="A61" s="31"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6427,8 +6719,8 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="44"/>
+    <row r="62" spans="1:22" ht="13">
+      <c r="A62" s="31"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6451,8 +6743,8 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="44"/>
+    <row r="63" spans="1:22" ht="13">
+      <c r="A63" s="31"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6475,8 +6767,8 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="44"/>
+    <row r="64" spans="1:22" ht="13">
+      <c r="A64" s="31"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6499,8 +6791,8 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="44"/>
+    <row r="65" spans="1:22" ht="13">
+      <c r="A65" s="31"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6523,8 +6815,8 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="44"/>
+    <row r="66" spans="1:22" ht="13">
+      <c r="A66" s="31"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6547,8 +6839,8 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="44"/>
+    <row r="67" spans="1:22" ht="13">
+      <c r="A67" s="31"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6571,8 +6863,8 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="44"/>
+    <row r="68" spans="1:22" ht="13">
+      <c r="A68" s="31"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6595,8 +6887,8 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="44"/>
+    <row r="69" spans="1:22" ht="13">
+      <c r="A69" s="31"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6619,8 +6911,8 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="44"/>
+    <row r="70" spans="1:22" ht="13">
+      <c r="A70" s="31"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6643,8 +6935,8 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="44"/>
+    <row r="71" spans="1:22" ht="13">
+      <c r="A71" s="31"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6667,8 +6959,8 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="44"/>
+    <row r="72" spans="1:22" ht="13">
+      <c r="A72" s="31"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6691,8 +6983,8 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="44"/>
+    <row r="73" spans="1:22" ht="13">
+      <c r="A73" s="31"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6715,8 +7007,8 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="44"/>
+    <row r="74" spans="1:22" ht="13">
+      <c r="A74" s="31"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6739,8 +7031,8 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="44"/>
+    <row r="75" spans="1:22" ht="13">
+      <c r="A75" s="31"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6763,8 +7055,8 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="44"/>
+    <row r="76" spans="1:22" ht="13">
+      <c r="A76" s="31"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6787,8 +7079,8 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="44"/>
+    <row r="77" spans="1:22" ht="13">
+      <c r="A77" s="31"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6811,8 +7103,8 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="44"/>
+    <row r="78" spans="1:22" ht="13">
+      <c r="A78" s="31"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6835,8 +7127,8 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="44"/>
+    <row r="79" spans="1:22" ht="13">
+      <c r="A79" s="31"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6859,8 +7151,8 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="44"/>
+    <row r="80" spans="1:22" ht="13">
+      <c r="A80" s="31"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6883,8 +7175,8 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="44"/>
+    <row r="81" spans="1:22" ht="13">
+      <c r="A81" s="31"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6907,8 +7199,8 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="44"/>
+    <row r="82" spans="1:22" ht="13">
+      <c r="A82" s="31"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6931,8 +7223,8 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="44"/>
+    <row r="83" spans="1:22" ht="13">
+      <c r="A83" s="31"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6955,8 +7247,8 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="44"/>
+    <row r="84" spans="1:22" ht="13">
+      <c r="A84" s="31"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6979,8 +7271,8 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="44"/>
+    <row r="85" spans="1:22" ht="13">
+      <c r="A85" s="31"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -7003,8 +7295,8 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="44"/>
+    <row r="86" spans="1:22" ht="13">
+      <c r="A86" s="31"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7027,8 +7319,8 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
-    <row r="87">
-      <c r="A87" s="44"/>
+    <row r="87" spans="1:22" ht="13">
+      <c r="A87" s="31"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -7051,8 +7343,8 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88">
-      <c r="A88" s="44"/>
+    <row r="88" spans="1:22" ht="13">
+      <c r="A88" s="31"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7075,8 +7367,8 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="44"/>
+    <row r="89" spans="1:22" ht="13">
+      <c r="A89" s="31"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7099,8 +7391,8 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90">
-      <c r="A90" s="44"/>
+    <row r="90" spans="1:22" ht="13">
+      <c r="A90" s="31"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7123,8 +7415,8 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91">
-      <c r="A91" s="44"/>
+    <row r="91" spans="1:22" ht="13">
+      <c r="A91" s="31"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7147,8 +7439,8 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92">
-      <c r="A92" s="44"/>
+    <row r="92" spans="1:22" ht="13">
+      <c r="A92" s="31"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7171,8 +7463,8 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="44"/>
+    <row r="93" spans="1:22" ht="13">
+      <c r="A93" s="31"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7195,8 +7487,8 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="44"/>
+    <row r="94" spans="1:22" ht="13">
+      <c r="A94" s="31"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7219,8 +7511,8 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
     </row>
-    <row r="95">
-      <c r="A95" s="44"/>
+    <row r="95" spans="1:22" ht="13">
+      <c r="A95" s="31"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7243,8 +7535,8 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
     </row>
-    <row r="96">
-      <c r="A96" s="44"/>
+    <row r="96" spans="1:22" ht="13">
+      <c r="A96" s="31"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7267,8 +7559,8 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
     </row>
-    <row r="97">
-      <c r="A97" s="44"/>
+    <row r="97" spans="1:22" ht="13">
+      <c r="A97" s="31"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7291,8 +7583,8 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
     </row>
-    <row r="98">
-      <c r="A98" s="44"/>
+    <row r="98" spans="1:22" ht="13">
+      <c r="A98" s="31"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7315,8 +7607,8 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
     </row>
-    <row r="99">
-      <c r="A99" s="44"/>
+    <row r="99" spans="1:22" ht="13">
+      <c r="A99" s="31"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7339,8 +7631,8 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="44"/>
+    <row r="100" spans="1:22" ht="13">
+      <c r="A100" s="31"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7365,157 +7657,161 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="37.75"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="35.25"/>
-    <col customWidth="1" min="7" max="7" width="33.13"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="G2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="18" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="44"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="31"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7524,8 +7820,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="31"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7534,8 +7830,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="31"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7544,8 +7840,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A9" s="31"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7554,8 +7850,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A10" s="31"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7568,612 +7864,633 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="37.75"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="35.25"/>
-    <col customWidth="1" min="7" max="7" width="33.13"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="A9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="76">
+      <c r="A10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="57">
+      <c r="A11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="38">
+      <c r="A12" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="57">
+      <c r="A13" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="76">
+      <c r="A14" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="57">
+      <c r="A15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="38">
+      <c r="A16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="38">
+      <c r="A17" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" ht="57">
+      <c r="A18" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="57">
+      <c r="A19" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="76">
+      <c r="A20" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" ht="38">
+      <c r="A21" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="E21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E25" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="47"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="43"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="43"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="43"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="43"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="44"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A30" s="30"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8182,8 +8499,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8192,8 +8509,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8202,8 +8519,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8212,8 +8529,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8222,8 +8539,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="44"/>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8232,8 +8549,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="44"/>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8242,8 +8559,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8252,8 +8569,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="44"/>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A41" s="31"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8262,8 +8579,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A42" s="31"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8274,679 +8591,696 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="31.38"/>
-    <col customWidth="1" min="6" max="6" width="30.0"/>
-    <col customWidth="1" min="7" max="7" width="20.88"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="D2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="18.13"/>
-    <col customWidth="1" min="3" max="3" width="23.5"/>
-    <col customWidth="1" min="4" max="4" width="30.5"/>
-    <col customWidth="1" min="6" max="6" width="28.5"/>
-    <col customWidth="1" min="7" max="7" width="27.88"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+      <c r="E3" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>24</v>
+      <c r="E4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-    <col customWidth="1" min="3" max="3" width="26.5"/>
-    <col customWidth="1" min="4" max="4" width="29.25"/>
-    <col customWidth="1" min="6" max="6" width="21.25"/>
-    <col customWidth="1" min="7" max="7" width="23.25"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>24</v>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.88"/>
-    <col customWidth="1" min="2" max="2" width="18.38"/>
-    <col customWidth="1" min="3" max="3" width="26.38"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
-    <col customWidth="1" min="6" max="6" width="23.75"/>
-    <col customWidth="1" min="7" max="7" width="20.38"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="D2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.38"/>
-    <col customWidth="1" min="3" max="3" width="25.13"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="6" max="6" width="19.75"/>
-    <col customWidth="1" min="7" max="7" width="23.25"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>24</v>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testcase Live Project_UnitTest_v1.xlsx
+++ b/Testcase Live Project_UnitTest_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanthithuy/Documents/Live Poroject Guru99/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70885A4C-2552-4949-AC44-C680664415D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D0F5B-4EC7-304D-972D-BAA7187DD1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,23 @@
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="New Customer" sheetId="2" r:id="rId2"/>
     <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
-    <sheet name="Copy of Edit Customer" sheetId="4" r:id="rId4"/>
-    <sheet name="New Account" sheetId="5" r:id="rId5"/>
-    <sheet name="Edit Account" sheetId="6" r:id="rId6"/>
-    <sheet name="Delete Account" sheetId="7" r:id="rId7"/>
-    <sheet name="Delete Customer" sheetId="8" r:id="rId8"/>
-    <sheet name="Mini Statement" sheetId="9" r:id="rId9"/>
-    <sheet name="Customize Statement" sheetId="10" r:id="rId10"/>
-    <sheet name="FundTransfer" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="BalenceEnquiry" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="13" state="hidden" r:id="rId13"/>
-    <sheet name="Change  password" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="New Account" sheetId="5" r:id="rId4"/>
+    <sheet name="Edit Account" sheetId="6" r:id="rId5"/>
+    <sheet name="Delete Account" sheetId="7" r:id="rId6"/>
+    <sheet name="Delete Customer" sheetId="8" r:id="rId7"/>
+    <sheet name="Mini Statement" sheetId="9" r:id="rId8"/>
+    <sheet name="Customize Statement" sheetId="10" r:id="rId9"/>
+    <sheet name="FundTransfer" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="BalenceEnquiry" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="Change  password" sheetId="14" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="290">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -519,93 +518,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>EC5</t>
-  </si>
-  <si>
-    <t>EC6</t>
-  </si>
-  <si>
-    <t>EC7</t>
-  </si>
-  <si>
-    <t>EC8</t>
-  </si>
-  <si>
-    <t>EC9</t>
-  </si>
-  <si>
-    <t>An error message "City field must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC10</t>
-  </si>
-  <si>
-    <t>EC11</t>
-  </si>
-  <si>
-    <t>EC12</t>
-  </si>
-  <si>
-    <t>EC13</t>
-  </si>
-  <si>
-    <t>An error message "State Field must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC14</t>
-  </si>
-  <si>
-    <t>EC15</t>
-  </si>
-  <si>
-    <t>EC16</t>
-  </si>
-  <si>
-    <t>EC17</t>
-  </si>
-  <si>
-    <t>An error message "Pin Code must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC18</t>
-  </si>
-  <si>
-    <t>EC19</t>
-  </si>
-  <si>
-    <t>EC20</t>
-  </si>
-  <si>
-    <t>EC21</t>
-  </si>
-  <si>
-    <t>EC22</t>
-  </si>
-  <si>
-    <t>EC23</t>
-  </si>
-  <si>
-    <t>EC24</t>
-  </si>
-  <si>
-    <t>EC25</t>
-  </si>
-  <si>
-    <t>An error message "Email ID must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC26</t>
-  </si>
-  <si>
-    <t>doanthuy@gmail@gmail@gmail.com</t>
-  </si>
-  <si>
-    <t>An error message "Email ID is not valid" must shown</t>
-  </si>
-  <si>
-    <t>EC27</t>
-  </si>
-  <si>
     <t>NA1</t>
   </si>
   <si>
@@ -1047,13 +959,16 @@
   </si>
   <si>
     <t>Đoàn Thị Thuý</t>
+  </si>
+  <si>
+    <t>As Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1083,29 +998,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -1116,8 +1014,33 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,8 +1083,14 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1220,27 +1149,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1252,68 +1187,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1321,28 +1199,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1351,19 +1214,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1372,6 +1343,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1685,17 +1661,17 @@
   </sheetPr>
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1723,12 +1699,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1833,18 +1809,18 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1">
+    <row r="7" spans="1:20" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="52" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1"/>
@@ -1863,21 +1839,21 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:20" ht="20">
+      <c r="A8" s="2"/>
+      <c r="B8" s="53">
         <v>1</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="45">
+      <c r="C8" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="55">
         <v>44858</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1893,21 +1869,21 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:20" ht="40">
+      <c r="A9" s="2"/>
+      <c r="B9" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="D9" s="46">
-        <v>44889</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="55">
+        <v>44880</v>
+      </c>
+      <c r="E9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1923,13 +1899,13 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:20" ht="19">
+      <c r="A10" s="2"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1947,10 +1923,10 @@
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1969,10 +1945,10 @@
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3912,275 +3888,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4199,164 +3906,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="37">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="F9" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="37" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D10" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="E10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="37">
-        <v>2</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C7" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="37">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C9" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C10" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4383,74 +4090,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="37">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>274</v>
+      <c r="B2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>278</v>
+      <c r="C3" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>281</v>
+      <c r="C4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4458,7 +4165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4475,222 +4182,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C12" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="37">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="37">
-        <v>2</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="F12" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="37" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D13" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="E13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C7" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="37">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C9" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C10" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="37">
-        <v>4</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="37" t="s">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="11">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="C14" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C12" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C13" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C15" s="37" t="s">
-        <v>291</v>
+      <c r="C15" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C16" s="37" t="s">
-        <v>291</v>
+      <c r="C16" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4698,7 +4405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4715,125 +4422,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="37">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>295</v>
+      <c r="B2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="37">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>299</v>
+      <c r="B3" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>303</v>
+      <c r="C4" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C5" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>307</v>
+      <c r="C5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>311</v>
+      <c r="C6" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="37">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>316</v>
+      <c r="B7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4849,14 +4556,14 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" customWidth="1"/>
     <col min="4" max="4" width="39.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
@@ -4865,70 +4572,70 @@
     <col min="8" max="22" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" ht="20">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-    </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" ht="60">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4943,1088 +4650,1088 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="57">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:22" ht="60">
+      <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-    </row>
-    <row r="4" spans="1:22" ht="57">
-      <c r="A4" s="12" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="60">
+      <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-    </row>
-    <row r="5" spans="1:22" ht="38">
-      <c r="A5" s="12" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" ht="40">
+      <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-    </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="60">
+      <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-    </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="40">
+      <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-    </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="60">
+      <c r="A8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-    </row>
-    <row r="9" spans="1:22" ht="57">
-      <c r="A9" s="20" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="60">
+      <c r="A9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="1:22" ht="38">
-      <c r="A10" s="20" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="40">
+      <c r="A10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="1:22" ht="38">
-      <c r="A11" s="20" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="40">
+      <c r="A11" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-    </row>
-    <row r="12" spans="1:22" ht="38">
-      <c r="A12" s="20" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="40">
+      <c r="A12" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-    </row>
-    <row r="13" spans="1:22" ht="38">
-      <c r="A13" s="23" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="40">
+      <c r="A13" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-    </row>
-    <row r="14" spans="1:22" ht="57">
-      <c r="A14" s="23" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="60">
+      <c r="A14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="1:22" ht="57">
-      <c r="A15" s="23" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="60">
+      <c r="A15" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-    </row>
-    <row r="16" spans="1:22" ht="38">
-      <c r="A16" s="23" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="40">
+      <c r="A16" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-    </row>
-    <row r="17" spans="1:22" ht="38">
-      <c r="A17" s="26" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="40">
+      <c r="A17" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" spans="1:22" ht="38">
-      <c r="A18" s="26" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="40">
+      <c r="A18" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-    </row>
-    <row r="19" spans="1:22" ht="57">
-      <c r="A19" s="26" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" ht="60">
+      <c r="A19" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-    </row>
-    <row r="20" spans="1:22" ht="57">
-      <c r="A20" s="26" t="s">
+      <c r="I19" s="17"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="1:22" ht="60">
+      <c r="A20" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-    </row>
-    <row r="21" spans="1:22" ht="38">
-      <c r="A21" s="26" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" ht="40">
+      <c r="A21" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-    </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" ht="60">
+      <c r="A22" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" ht="60">
+      <c r="A23" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-    </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="1:22" ht="40">
+      <c r="A24" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="G24" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:22" ht="40">
+      <c r="A25" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="G25" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-    </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:22" ht="60">
+      <c r="A26" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="G26" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-    </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="I26" s="17"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="1:22" ht="60">
+      <c r="A27" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="G27" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-    </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="I27" s="17"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="1:22" ht="40">
+      <c r="A28" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
     </row>
     <row r="30" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
     </row>
     <row r="31" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6048,7 +5755,7 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="31"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6072,7 +5779,7 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6096,7 +5803,7 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -6120,7 +5827,7 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6144,7 +5851,7 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A38" s="31"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6168,7 +5875,7 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6192,7 +5899,7 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6216,7 +5923,7 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A41" s="31"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6240,7 +5947,7 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6264,7 +5971,7 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6288,7 +5995,7 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6312,7 +6019,7 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A45" s="31"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6336,7 +6043,7 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6360,7 +6067,7 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A47" s="31"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6384,7 +6091,7 @@
       <c r="V47" s="1"/>
     </row>
     <row r="48" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6408,7 +6115,7 @@
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6432,7 +6139,7 @@
       <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6456,7 +6163,7 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6480,7 +6187,7 @@
       <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6504,7 +6211,7 @@
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6528,7 +6235,7 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6552,7 +6259,7 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A55" s="31"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6576,7 +6283,7 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A56" s="31"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6600,7 +6307,7 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6624,7 +6331,7 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6648,7 +6355,7 @@
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6672,7 +6379,7 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6696,7 +6403,7 @@
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" ht="13">
-      <c r="A61" s="31"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6720,7 +6427,7 @@
       <c r="V61" s="1"/>
     </row>
     <row r="62" spans="1:22" ht="13">
-      <c r="A62" s="31"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6744,7 +6451,7 @@
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" ht="13">
-      <c r="A63" s="31"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6768,7 +6475,7 @@
       <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" ht="13">
-      <c r="A64" s="31"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6792,7 +6499,7 @@
       <c r="V64" s="1"/>
     </row>
     <row r="65" spans="1:22" ht="13">
-      <c r="A65" s="31"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6816,7 +6523,7 @@
       <c r="V65" s="1"/>
     </row>
     <row r="66" spans="1:22" ht="13">
-      <c r="A66" s="31"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6840,7 +6547,7 @@
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" ht="13">
-      <c r="A67" s="31"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6864,7 +6571,7 @@
       <c r="V67" s="1"/>
     </row>
     <row r="68" spans="1:22" ht="13">
-      <c r="A68" s="31"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6888,7 +6595,7 @@
       <c r="V68" s="1"/>
     </row>
     <row r="69" spans="1:22" ht="13">
-      <c r="A69" s="31"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6912,7 +6619,7 @@
       <c r="V69" s="1"/>
     </row>
     <row r="70" spans="1:22" ht="13">
-      <c r="A70" s="31"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6936,7 +6643,7 @@
       <c r="V70" s="1"/>
     </row>
     <row r="71" spans="1:22" ht="13">
-      <c r="A71" s="31"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6960,7 +6667,7 @@
       <c r="V71" s="1"/>
     </row>
     <row r="72" spans="1:22" ht="13">
-      <c r="A72" s="31"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6984,7 +6691,7 @@
       <c r="V72" s="1"/>
     </row>
     <row r="73" spans="1:22" ht="13">
-      <c r="A73" s="31"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -7008,7 +6715,7 @@
       <c r="V73" s="1"/>
     </row>
     <row r="74" spans="1:22" ht="13">
-      <c r="A74" s="31"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -7032,7 +6739,7 @@
       <c r="V74" s="1"/>
     </row>
     <row r="75" spans="1:22" ht="13">
-      <c r="A75" s="31"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -7056,7 +6763,7 @@
       <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22" ht="13">
-      <c r="A76" s="31"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -7080,7 +6787,7 @@
       <c r="V76" s="1"/>
     </row>
     <row r="77" spans="1:22" ht="13">
-      <c r="A77" s="31"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -7104,7 +6811,7 @@
       <c r="V77" s="1"/>
     </row>
     <row r="78" spans="1:22" ht="13">
-      <c r="A78" s="31"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -7128,7 +6835,7 @@
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:22" ht="13">
-      <c r="A79" s="31"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -7152,7 +6859,7 @@
       <c r="V79" s="1"/>
     </row>
     <row r="80" spans="1:22" ht="13">
-      <c r="A80" s="31"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -7176,7 +6883,7 @@
       <c r="V80" s="1"/>
     </row>
     <row r="81" spans="1:22" ht="13">
-      <c r="A81" s="31"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -7200,7 +6907,7 @@
       <c r="V81" s="1"/>
     </row>
     <row r="82" spans="1:22" ht="13">
-      <c r="A82" s="31"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -7224,7 +6931,7 @@
       <c r="V82" s="1"/>
     </row>
     <row r="83" spans="1:22" ht="13">
-      <c r="A83" s="31"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -7248,7 +6955,7 @@
       <c r="V83" s="1"/>
     </row>
     <row r="84" spans="1:22" ht="13">
-      <c r="A84" s="31"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -7272,7 +6979,7 @@
       <c r="V84" s="1"/>
     </row>
     <row r="85" spans="1:22" ht="13">
-      <c r="A85" s="31"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -7296,7 +7003,7 @@
       <c r="V85" s="1"/>
     </row>
     <row r="86" spans="1:22" ht="13">
-      <c r="A86" s="31"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7320,7 +7027,7 @@
       <c r="V86" s="1"/>
     </row>
     <row r="87" spans="1:22" ht="13">
-      <c r="A87" s="31"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -7344,7 +7051,7 @@
       <c r="V87" s="1"/>
     </row>
     <row r="88" spans="1:22" ht="13">
-      <c r="A88" s="31"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7368,7 +7075,7 @@
       <c r="V88" s="1"/>
     </row>
     <row r="89" spans="1:22" ht="13">
-      <c r="A89" s="31"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7392,7 +7099,7 @@
       <c r="V89" s="1"/>
     </row>
     <row r="90" spans="1:22" ht="13">
-      <c r="A90" s="31"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7416,7 +7123,7 @@
       <c r="V90" s="1"/>
     </row>
     <row r="91" spans="1:22" ht="13">
-      <c r="A91" s="31"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7440,7 +7147,7 @@
       <c r="V91" s="1"/>
     </row>
     <row r="92" spans="1:22" ht="13">
-      <c r="A92" s="31"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7464,7 +7171,7 @@
       <c r="V92" s="1"/>
     </row>
     <row r="93" spans="1:22" ht="13">
-      <c r="A93" s="31"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7488,7 +7195,7 @@
       <c r="V93" s="1"/>
     </row>
     <row r="94" spans="1:22" ht="13">
-      <c r="A94" s="31"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7512,7 +7219,7 @@
       <c r="V94" s="1"/>
     </row>
     <row r="95" spans="1:22" ht="13">
-      <c r="A95" s="31"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7536,7 +7243,7 @@
       <c r="V95" s="1"/>
     </row>
     <row r="96" spans="1:22" ht="13">
-      <c r="A96" s="31"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7560,7 +7267,7 @@
       <c r="V96" s="1"/>
     </row>
     <row r="97" spans="1:22" ht="13">
-      <c r="A97" s="31"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7584,7 +7291,7 @@
       <c r="V97" s="1"/>
     </row>
     <row r="98" spans="1:22" ht="13">
-      <c r="A98" s="31"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7608,7 +7315,7 @@
       <c r="V98" s="1"/>
     </row>
     <row r="99" spans="1:22" ht="13">
-      <c r="A99" s="31"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7632,7 +7339,7 @@
       <c r="V99" s="1"/>
     </row>
     <row r="100" spans="1:22" ht="13">
-      <c r="A100" s="31"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7676,142 +7383,146 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="19">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" ht="57">
+      <c r="A2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7821,7 +7532,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7831,7 +7542,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7841,7 +7552,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7851,7 +7562,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7869,748 +7580,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="57">
-      <c r="A9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="76">
-      <c r="A10" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="57">
-      <c r="A11" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" ht="38">
-      <c r="A12" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="57">
-      <c r="A13" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" ht="76">
-      <c r="A14" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="57">
-      <c r="A15" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" ht="38">
-      <c r="A16" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="38">
-      <c r="A17" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" ht="57">
-      <c r="A18" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" ht="57">
-      <c r="A19" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" ht="76">
-      <c r="A20" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:8" ht="38">
-      <c r="A21" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -8622,137 +7600,137 @@
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="38">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="1:8" ht="95">
+      <c r="A2" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8762,14 +7740,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -8781,101 +7761,101 @@
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="38">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="1:8" ht="76">
+      <c r="A2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="14" t="s">
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="13" t="s">
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8887,14 +7867,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -8906,101 +7888,101 @@
     <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="1:8" ht="76">
+      <c r="A2" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="14" t="s">
+    <row r="3" spans="1:8" ht="76">
+      <c r="A3" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="14" t="s">
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9012,144 +7994,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="38" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="1:8" ht="95">
+      <c r="A2" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:8" ht="76">
+      <c r="A5" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9161,119 +8147,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="40" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="1:8" ht="76">
+      <c r="A2" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="14" t="s">
+    <row r="3" spans="1:8" ht="76">
+      <c r="A3" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="14" t="s">
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9283,4 +8274,279 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38">
+      <c r="A1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="76">
+      <c r="A2" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="95">
+      <c r="A5" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76">
+      <c r="A6" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="76">
+      <c r="A7" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="95">
+      <c r="A8" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="76">
+      <c r="A9" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="76">
+      <c r="A10" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testcase Live Project_UnitTest_v1.xlsx
+++ b/Testcase Live Project_UnitTest_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanthithuy/Documents/Live Poroject Guru99/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D0F5B-4EC7-304D-972D-BAA7187DD1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6ABC4-691D-DF41-A0F3-0576C8C7F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="289">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -97,9 +97,6 @@
     <t>An error message "Customer name must not be blank" must shown</t>
   </si>
   <si>
-    <t>An error message "Customer name must not be blank" is shown</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>An error message "City Field must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>An error message "City Field must be not blank" must shown</t>
   </si>
   <si>
     <t>NC10</t>
@@ -962,6 +956,9 @@
   </si>
   <si>
     <t>As Expected</t>
+  </si>
+  <si>
+    <t>An error message "Characters are not allowed" is shown</t>
   </si>
 </sst>
 </file>
@@ -996,23 +993,28 @@
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1168,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1208,12 +1210,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,25 +1229,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1278,9 +1265,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,22 +1280,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1336,6 +1311,36 @@
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,7 +1666,7 @@
   </sheetPr>
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1699,12 +1704,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1811,16 +1816,16 @@
     </row>
     <row r="7" spans="1:20" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1"/>
@@ -1839,18 +1844,18 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="20">
+    <row r="8" spans="1:20" ht="40">
       <c r="A8" s="2"/>
-      <c r="B8" s="53">
+      <c r="B8" s="44">
         <v>1</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="C8" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="46">
         <v>44858</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="3"/>
@@ -1871,16 +1876,16 @@
     </row>
     <row r="9" spans="1:20" ht="40">
       <c r="A9" s="2"/>
-      <c r="B9" s="53">
+      <c r="B9" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="55">
+      <c r="C9" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="46">
         <v>44880</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="45" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="3"/>
@@ -1901,10 +1906,10 @@
     </row>
     <row r="10" spans="1:20" ht="19">
       <c r="A10" s="2"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3907,7 +3912,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -3925,7 +3930,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>14</v>
@@ -3936,44 +3941,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -3981,44 +3986,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="C7" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -4026,44 +4031,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="C9" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4091,7 +4096,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -4109,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>14</v>
@@ -4120,44 +4125,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +4188,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -4201,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>14</v>
@@ -4212,36 +4217,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -4249,44 +4254,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="C7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -4294,44 +4299,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="C9" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
@@ -4339,44 +4344,44 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="C12" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="C13" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
@@ -4384,20 +4389,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="C15" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="C16" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4428,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -4441,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>14</v>
@@ -4452,16 +4457,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -4469,58 +4474,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="C5" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -4528,19 +4533,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4555,49 +4560,50 @@
   </sheetPr>
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26:G27"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
-    <col min="8" max="22" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="22" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -4613,29 +4619,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="60">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4651,29 +4657,29 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="60">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="17"/>
+      <c r="G3" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="15"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -4689,29 +4695,29 @@
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="60">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="17"/>
+      <c r="G4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="15"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -4727,29 +4733,29 @@
       <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="40">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -4765,29 +4771,29 @@
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="60">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="17"/>
+      <c r="H6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -4803,29 +4809,29 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" ht="40">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -4841,29 +4847,29 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" ht="60">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="17"/>
+      <c r="F8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -4879,31 +4885,31 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" ht="60">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17"/>
+      <c r="G9" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -4919,27 +4925,27 @@
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" ht="40">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="17"/>
+      <c r="G10" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -4955,29 +4961,29 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" ht="40">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="17"/>
+      <c r="F11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -4993,27 +4999,27 @@
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" ht="40">
-      <c r="A12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="23" t="s">
+      <c r="A12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -5029,31 +5035,31 @@
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" ht="40">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="E13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="17"/>
+      <c r="F13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -5069,27 +5075,27 @@
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" ht="60">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="28" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="17"/>
+      <c r="G14" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="15"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -5105,29 +5111,29 @@
       <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" ht="60">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="17"/>
+      <c r="F15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -5143,29 +5149,29 @@
       <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:22" ht="40">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -5181,31 +5187,31 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="40">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="D17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="E17" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="F17" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="17"/>
+      <c r="G17" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="15"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -5221,27 +5227,27 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="40">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="38" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="17"/>
+      <c r="G18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -5257,29 +5263,29 @@
       <c r="V18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="60">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="37" t="s">
+      <c r="E19" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="17"/>
+      <c r="F19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="15"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -5295,29 +5301,29 @@
       <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:22" ht="60">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="38" t="s">
+      <c r="E20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="F20" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="17"/>
+      <c r="G20" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="15"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -5333,29 +5339,29 @@
       <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="40">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -5371,29 +5377,29 @@
       <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" ht="60">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="D22" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="G22" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="17"/>
+      <c r="H22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -5409,29 +5415,29 @@
       <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" ht="60">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="17"/>
+      <c r="E23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="15"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -5447,29 +5453,29 @@
       <c r="V23" s="7"/>
     </row>
     <row r="24" spans="1:22" ht="40">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="28" t="s">
+      <c r="E24" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="F24" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="17"/>
+      <c r="G24" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="15"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -5485,29 +5491,29 @@
       <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" ht="40">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -5523,29 +5529,29 @@
       <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" ht="60">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="17"/>
+      <c r="G26" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -5561,29 +5567,29 @@
       <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" ht="60">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="F27" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="17"/>
+      <c r="G27" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="15"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -5599,27 +5605,27 @@
       <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" ht="40">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="17"/>
+      <c r="G28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="15"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -7384,7 +7390,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -7400,125 +7406,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="57">
+      <c r="A2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="57">
-      <c r="A2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="D2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="G2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57">
-      <c r="A3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
+      <c r="E3" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="H3" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57">
-      <c r="A4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
+      <c r="E4" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="41" t="s">
+      <c r="D5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -7587,139 +7593,141 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="95">
+      <c r="A2" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="95">
-      <c r="A2" s="41" t="s">
+      <c r="C2" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57">
-      <c r="A3" s="41" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57">
-      <c r="A4" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="45" t="s">
+      <c r="D5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="36" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -7747,116 +7755,118 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="76">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="G2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57">
-      <c r="A3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
+      <c r="E3" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57">
-      <c r="A4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>21</v>
+      <c r="E4" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7889,101 +7899,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="76">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="76">
+      <c r="A3" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="76">
-      <c r="A3" s="41" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="76">
-      <c r="A4" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>21</v>
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8018,125 +8028,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="95">
+      <c r="A2" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="95">
-      <c r="A2" s="41" t="s">
+      <c r="C2" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57">
-      <c r="A3" s="41" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="76">
-      <c r="A4" s="41" t="s">
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="76">
+      <c r="A5" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="76">
-      <c r="A5" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="45" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8171,101 +8181,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="76">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="76">
+      <c r="A3" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="76">
-      <c r="A3" s="41" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="76">
-      <c r="A4" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>21</v>
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8300,245 +8310,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="76">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57">
-      <c r="A3" s="41" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43" t="s">
+      <c r="E4" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="95">
+      <c r="A5" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76">
+      <c r="A6" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="76">
-      <c r="A4" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="95">
-      <c r="A5" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="76">
-      <c r="A6" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="48" t="s">
+      <c r="F6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="76">
+      <c r="A7" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="76">
-      <c r="A7" s="46" t="s">
+      <c r="D7" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="48" t="s">
+      <c r="E7" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="95">
+      <c r="A8" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="B8" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="95">
-      <c r="A8" s="41" t="s">
+      <c r="C8" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="D8" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="G8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="76">
+      <c r="A9" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="76">
-      <c r="A9" s="41" t="s">
+      <c r="D9" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43" t="s">
+      <c r="E9" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="76">
+      <c r="A10" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="76">
-      <c r="A10" s="41" t="s">
+      <c r="D10" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>37</v>
+      <c r="E10" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
